--- a/Document/Table_Customer.xlsx
+++ b/Document/Table_Customer.xlsx
@@ -771,6 +771,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2721,7 +2722,7 @@
   <dimension ref="B1:K154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Document/Table_Customer.xlsx
+++ b/Document/Table_Customer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2565" windowWidth="14805" windowHeight="5550" tabRatio="874"/>
+    <workbookView xWindow="240" yWindow="2625" windowWidth="14805" windowHeight="5490" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerData" sheetId="14" r:id="rId1"/>
@@ -2721,8 +2721,8 @@
   </sheetPr>
   <dimension ref="B1:K154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2787,17 +2787,17 @@
         <v>48</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F5" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
       </c>
       <c r="I5" s="14" t="str">
         <f>" "&amp;C5&amp;"  "&amp;E5&amp;"("&amp;F5&amp;") ,"</f>
-        <v xml:space="preserve"> CustomerNo  number(16) ,</v>
+        <v xml:space="preserve"> CustomerNo  Varchar2(20) ,</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>48</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G45" s="12">
         <v>1</v>
@@ -3824,10 +3824,10 @@
         <v>48</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G58" s="12">
         <v>1</v>
@@ -3985,10 +3985,10 @@
         <v>48</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G68" s="12">
         <v>1</v>
@@ -4212,10 +4212,10 @@
         <v>48</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G81" s="12">
         <v>1</v>
@@ -4342,10 +4342,10 @@
         <v>48</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G89" s="12">
         <v>1</v>
@@ -4629,10 +4629,10 @@
         <v>48</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G105" s="12">
         <v>1</v>
@@ -4952,10 +4952,10 @@
         <v>144</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F126" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G126" s="12">
         <v>1</v>
@@ -5099,10 +5099,10 @@
         <v>34</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="F135" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G135" s="12">
         <v>1</v>
